--- a/public/downloads/NON-TESTED-CLASSIC-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/NON-TESTED-CLASSIC-RAW-SINGLE-LIFTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/UP DATED ROLLING  RECORDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1137" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566FF30F-9BD1-4430-8BD1-38AADA4C5156}"/>
+  <xr:revisionPtr revIDLastSave="1141" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3EC7F9-46A4-4CD0-838C-AE9D156CDE81}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="212">
   <si>
     <t>Weight</t>
   </si>
@@ -811,10 +811,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3137,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
   <dimension ref="A1:H556"/>
   <sheetViews>
-    <sheetView topLeftCell="A510" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5041,6 +5037,18 @@
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E239" s="16">
+        <v>45200</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -14761,7 +14769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>

--- a/public/downloads/NON-TESTED-CLASSIC-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/NON-TESTED-CLASSIC-RAW-SINGLE-LIFTS.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/UP DATED ROLLING  RECORDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/BRITISH ROLLING  RECORDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1141" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3EC7F9-46A4-4CD0-838C-AE9D156CDE81}"/>
+  <xr:revisionPtr revIDLastSave="1142" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7C1765-3E8C-40ED-AB52-8F34C4215D49}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
     <sheet name="WOMEN OPEN" sheetId="6" r:id="rId2"/>
-    <sheet name="MEN MARSTERS" sheetId="1" r:id="rId3"/>
+    <sheet name="MEN MASTERS" sheetId="1" r:id="rId3"/>
     <sheet name="WOMEN MASTERS" sheetId="2" r:id="rId4"/>
     <sheet name="MEN JUNIOR 15 - 19" sheetId="3" r:id="rId5"/>
     <sheet name="WOMEN JUNIOR 15 -19" sheetId="4" r:id="rId6"/>
@@ -811,6 +811,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3134,7 +3138,7 @@
   <dimension ref="A1:H556"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H238" sqref="H238"/>
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
